--- a/public/uploads/invoice/invoice-6.xlsx
+++ b/public/uploads/invoice/invoice-6.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>INVOICE</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>TOTAL PENDING BALANCE (BTD):</t>
+  </si>
+  <si>
+    <t>LESS RETAINAGE $</t>
+  </si>
+  <si>
+    <t>AMOUNT EARNED LESS RETAINAGE $</t>
+  </si>
+  <si>
+    <t>LESS PREVIOUS APPLICATIONS $</t>
+  </si>
+  <si>
+    <t>CURRENT AMOUNT DUE $</t>
+  </si>
+  <si>
+    <t>CURRENT RETAINAGE $</t>
   </si>
 </sst>
 </file>
@@ -878,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1170,6 +1185,9 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="14" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="12" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,7 +1466,7 @@
   <dimension ref="A1:AD974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="Q16" sqref="Q16:R19"/>
+      <selection activeCell="N21" sqref="N21:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2333,8 +2351,12 @@
       <c r="K21" s="35"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
+      <c r="N21" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="109">
+        <v>0.0</v>
+      </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="1"/>
@@ -2365,8 +2387,12 @@
       <c r="K22" s="35"/>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="N22" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="109">
+        <v>0.0</v>
+      </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="1"/>
@@ -2397,8 +2423,12 @@
       <c r="K23" s="35"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="N23" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="109">
+        <v>27393.5</v>
+      </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="1"/>
@@ -2429,8 +2459,12 @@
       <c r="K24" s="35"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
+      <c r="N24" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="109">
+        <v>-27393.5</v>
+      </c>
       <c r="P24" s="37"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="1"/>
@@ -2461,8 +2495,12 @@
       <c r="K25" s="35"/>
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="N25" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="109">
+        <v>3397.15000000000009</v>
+      </c>
       <c r="P25" s="37"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="1"/>

--- a/public/uploads/invoice/invoice-6.xlsx
+++ b/public/uploads/invoice/invoice-6.xlsx
@@ -50,7 +50,7 @@
     <t>GDOT CALL 015, 0017698</t>
   </si>
   <si>
-    <t>11/11/2025</t>
+    <t>11/14/2025</t>
   </si>
   <si>
     <t>1589 Willingham Dr</t>
@@ -1185,7 +1185,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="14" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="2" fillId="12" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="2" fillId="12" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -2128,8 +2128,12 @@
         <v>0.0</v>
       </c>
       <c r="P16" s="37"/>
-      <c r="Q16" s="105"/>
-      <c r="R16" s="107"/>
+      <c r="Q16" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="107">
+        <v>0.0</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2184,8 +2188,12 @@
         <v>0.0</v>
       </c>
       <c r="P17" s="37"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="107"/>
+      <c r="Q17" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="107">
+        <v>0.0</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2240,8 +2248,12 @@
         <v>0.0</v>
       </c>
       <c r="P18" s="37"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="107"/>
+      <c r="Q18" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="107">
+        <v>0.0</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2291,7 +2303,9 @@
       <c r="Q19" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="108"/>
+      <c r="R19" s="108">
+        <v>0.0</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2427,7 +2441,7 @@
         <v>62</v>
       </c>
       <c r="O23" s="109">
-        <v>27393.5</v>
+        <v>0</v>
       </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="32"/>
@@ -2463,7 +2477,7 @@
         <v>63</v>
       </c>
       <c r="O24" s="109">
-        <v>-27393.5</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="37"/>
       <c r="Q24" s="32"/>
